--- a/public/data/pre_interview_name_list.xlsx
+++ b/public/data/pre_interview_name_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/web/awl_sys/public/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zinmintun/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA42FBC-7423-0040-9C93-F8B2BA4A764B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787AD050-FAB2-E246-9DE3-322F826AB2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{036B47F5-906D-F84A-B0B8-D67F1384DF04}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{036B47F5-906D-F84A-B0B8-D67F1384DF04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>no</t>
   </si>
@@ -44,42 +44,9 @@
     <t>gender</t>
   </si>
   <si>
-    <t>nrc</t>
-  </si>
-  <si>
     <t>father_name</t>
   </si>
   <si>
-    <t>mother_name</t>
-  </si>
-  <si>
-    <t>qualification</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>native_town</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>come_from_to_interview</t>
-  </si>
-  <si>
-    <t>expiry_date</t>
-  </si>
-  <si>
-    <t>slip_date</t>
-  </si>
-  <si>
-    <t>passport_issue_date</t>
-  </si>
-  <si>
-    <t>phone_number</t>
-  </si>
-  <si>
     <t>passport_number</t>
   </si>
   <si>
@@ -87,6 +54,54 @@
   </si>
   <si>
     <t>fail_or_cancel</t>
+  </si>
+  <si>
+    <t>﻿age</t>
+  </si>
+  <si>
+    <t>﻿qualification</t>
+  </si>
+  <si>
+    <t>﻿nrc</t>
+  </si>
+  <si>
+    <t>﻿medical</t>
+  </si>
+  <si>
+    <t>﻿region</t>
+  </si>
+  <si>
+    <t>﻿physical_and_blindness_test</t>
+  </si>
+  <si>
+    <t>﻿native_town</t>
+  </si>
+  <si>
+    <t>﻿come_from_to_interview</t>
+  </si>
+  <si>
+    <t>﻿passport_issue_date</t>
+  </si>
+  <si>
+    <t>﻿passport_expire_date</t>
+  </si>
+  <si>
+    <t>﻿passport_slip_date</t>
+  </si>
+  <si>
+    <t>﻿phone_number</t>
+  </si>
+  <si>
+    <t>﻿covid_vaccine_first_dose</t>
+  </si>
+  <si>
+    <t>﻿covid_vaccine_second_dose</t>
+  </si>
+  <si>
+    <t>﻿date_of_birth</t>
+  </si>
+  <si>
+    <t>contract_no</t>
   </si>
 </sst>
 </file>
@@ -511,68 +526,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F8EDD4-B1BC-B740-B854-9B6A6CC839D9}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="34.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/pre_interview_name_list.xlsx
+++ b/public/data/pre_interview_name_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zinmintun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/web/awl_sys/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787AD050-FAB2-E246-9DE3-322F826AB2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4761255-6001-0044-8569-D91833CFB00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{036B47F5-906D-F84A-B0B8-D67F1384DF04}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>no</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>contract_no</t>
+  </si>
+  <si>
+    <t>﻿departure_date</t>
   </si>
 </sst>
 </file>
@@ -526,15 +529,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F8EDD4-B1BC-B740-B854-9B6A6CC839D9}">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,15 +596,18 @@
         <v>4</v>
       </c>
       <c r="T1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
